--- a/data-raw/kerr.sugarcane.uniformity.xlsx
+++ b/data-raw/kerr.sugarcane.uniformity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB08936-4A2F-4C0C-BB73-146A104F1279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB54CE-A6F4-4CF5-8053-4760F60D0A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="7884" windowHeight="3780" activeTab="2" xr2:uid="{CD742AD5-D0AB-4D56-B5C0-27E009F5A9B4}"/>
+    <workbookView xWindow="3880" yWindow="2840" windowWidth="7590" windowHeight="8130" activeTab="2" xr2:uid="{CD742AD5-D0AB-4D56-B5C0-27E009F5A9B4}"/>
   </bookViews>
   <sheets>
     <sheet name="T1" sheetId="1" r:id="rId1"/>
@@ -83,9 +83,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -123,7 +123,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -229,7 +229,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,7 +371,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -385,9 +385,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>796</v>
       </c>
@@ -425,7 +425,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>753</v>
       </c>
@@ -463,7 +463,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>861</v>
       </c>
@@ -501,7 +501,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>944</v>
       </c>
@@ -539,7 +539,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>959</v>
       </c>
@@ -577,7 +577,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>953</v>
       </c>
@@ -615,7 +615,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>918</v>
       </c>
@@ -653,7 +653,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>883</v>
       </c>
@@ -691,7 +691,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>896</v>
       </c>
@@ -729,7 +729,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>858</v>
       </c>
@@ -767,7 +767,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>873</v>
       </c>
@@ -805,7 +805,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>823</v>
       </c>
@@ -856,9 +856,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>485</v>
       </c>
@@ -896,7 +896,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>528</v>
       </c>
@@ -934,7 +934,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>548</v>
       </c>
@@ -972,7 +972,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>522</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>522</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>514</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>441</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>458</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>388</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>376</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>404</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>479</v>
       </c>
@@ -1327,9 +1327,9 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>732</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>862</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>753</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>818</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>850</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>952</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>959</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>835</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>766</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>825</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>952</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>922</v>
       </c>
@@ -1762,9 +1762,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>674</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>616</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>576</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>562</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>572</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>545</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>528</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>566</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>547</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>483</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>556</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>492</v>
       </c>
